--- a/Assets/06.Table/GuimoonPass.xlsx
+++ b/Assets/06.Table/GuimoonPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F24AF-C03C-4AA5-91FC-16D8E287CE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB422C3-4BCC-4732-9293-9B87C60C9407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonPass" sheetId="1" r:id="rId1"/>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,6 +923,26 @@
         <v>9038</v>
       </c>
       <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>9038</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>9038</v>
+      </c>
+      <c r="F22">
         <v>20</v>
       </c>
     </row>
@@ -981,15 +1001,15 @@
       </c>
       <c r="C5">
         <f>SUMIF(GuimoonPass!C:C,'보상 측정'!A5,GuimoonPass!D:D)</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D5">
         <f>SUMIF(GuimoonPass!E:E,'보상 측정'!A5,GuimoonPass!F:F)</f>
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="E5">
         <f>C5+D5</f>
-        <v>600</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonPass.xlsx
+++ b/Assets/06.Table/GuimoonPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB422C3-4BCC-4732-9293-9B87C60C9407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAE9281-1588-4BD1-B8A7-3D00EBCC6D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -943,6 +943,26 @@
         <v>9038</v>
       </c>
       <c r="F22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>9038</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>9038</v>
+      </c>
+      <c r="F23">
         <v>20</v>
       </c>
     </row>
@@ -1001,15 +1021,15 @@
       </c>
       <c r="C5">
         <f>SUMIF(GuimoonPass!C:C,'보상 측정'!A5,GuimoonPass!D:D)</f>
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D5">
         <f>SUMIF(GuimoonPass!E:E,'보상 측정'!A5,GuimoonPass!F:F)</f>
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="E5">
         <f>C5+D5</f>
-        <v>630</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonPass.xlsx
+++ b/Assets/06.Table/GuimoonPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAE9281-1588-4BD1-B8A7-3D00EBCC6D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28855B49-8829-4178-8307-DA0871E31E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonPass" sheetId="1" r:id="rId1"/>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -963,6 +963,26 @@
         <v>9038</v>
       </c>
       <c r="F23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>9038</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>9038</v>
+      </c>
+      <c r="F24">
         <v>20</v>
       </c>
     </row>
@@ -1021,15 +1041,15 @@
       </c>
       <c r="C5">
         <f>SUMIF(GuimoonPass!C:C,'보상 측정'!A5,GuimoonPass!D:D)</f>
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D5">
         <f>SUMIF(GuimoonPass!E:E,'보상 측정'!A5,GuimoonPass!F:F)</f>
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="E5">
         <f>C5+D5</f>
-        <v>660</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonPass.xlsx
+++ b/Assets/06.Table/GuimoonPass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28855B49-8829-4178-8307-DA0871E31E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE89637-8D9C-4BF0-9DF1-F89AF1A9C420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonPass" sheetId="1" r:id="rId1"/>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -983,6 +983,46 @@
         <v>9038</v>
       </c>
       <c r="F24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>9038</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>9038</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>9038</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>9038</v>
+      </c>
+      <c r="F26">
         <v>20</v>
       </c>
     </row>
@@ -1041,15 +1081,15 @@
       </c>
       <c r="C5">
         <f>SUMIF(GuimoonPass!C:C,'보상 측정'!A5,GuimoonPass!D:D)</f>
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="D5">
         <f>SUMIF(GuimoonPass!E:E,'보상 측정'!A5,GuimoonPass!F:F)</f>
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="E5">
         <f>C5+D5</f>
-        <v>690</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonPass.xlsx
+++ b/Assets/06.Table/GuimoonPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE89637-8D9C-4BF0-9DF1-F89AF1A9C420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BE4053-9C43-4DC0-B67F-24C6A8D5855E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonPass" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,18 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -485,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1006,28 +1017,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>9038</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>9038</v>
-      </c>
-      <c r="F26">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1081,15 +1075,15 @@
       </c>
       <c r="C5">
         <f>SUMIF(GuimoonPass!C:C,'보상 측정'!A5,GuimoonPass!D:D)</f>
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D5">
         <f>SUMIF(GuimoonPass!E:E,'보상 측정'!A5,GuimoonPass!F:F)</f>
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="E5">
         <f>C5+D5</f>
-        <v>750</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonPass.xlsx
+++ b/Assets/06.Table/GuimoonPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BE4053-9C43-4DC0-B67F-24C6A8D5855E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F12309F-3239-45EE-90B8-D2A800C77346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1014,6 +1014,26 @@
         <v>9038</v>
       </c>
       <c r="F25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>9038</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>9038</v>
+      </c>
+      <c r="F26">
         <v>20</v>
       </c>
     </row>
@@ -1075,15 +1095,15 @@
       </c>
       <c r="C5">
         <f>SUMIF(GuimoonPass!C:C,'보상 측정'!A5,GuimoonPass!D:D)</f>
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D5">
         <f>SUMIF(GuimoonPass!E:E,'보상 측정'!A5,GuimoonPass!F:F)</f>
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="E5">
         <f>C5+D5</f>
-        <v>720</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonPass.xlsx
+++ b/Assets/06.Table/GuimoonPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F12309F-3239-45EE-90B8-D2A800C77346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95615165-C7EB-4505-92D0-3D20222B9BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonPass" sheetId="1" r:id="rId1"/>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1034,6 +1034,26 @@
         <v>9038</v>
       </c>
       <c r="F26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>9038</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>9038</v>
+      </c>
+      <c r="F27">
         <v>20</v>
       </c>
     </row>
@@ -1095,15 +1115,15 @@
       </c>
       <c r="C5">
         <f>SUMIF(GuimoonPass!C:C,'보상 측정'!A5,GuimoonPass!D:D)</f>
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D5">
         <f>SUMIF(GuimoonPass!E:E,'보상 측정'!A5,GuimoonPass!F:F)</f>
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E5">
         <f>C5+D5</f>
-        <v>750</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonPass.xlsx
+++ b/Assets/06.Table/GuimoonPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95615165-C7EB-4505-92D0-3D20222B9BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B01E722-DAE3-4198-A698-3ADF50EA3DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonPass" sheetId="1" r:id="rId1"/>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1054,6 +1054,26 @@
         <v>9038</v>
       </c>
       <c r="F27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>9038</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>9038</v>
+      </c>
+      <c r="F28">
         <v>20</v>
       </c>
     </row>
@@ -1115,15 +1135,15 @@
       </c>
       <c r="C5">
         <f>SUMIF(GuimoonPass!C:C,'보상 측정'!A5,GuimoonPass!D:D)</f>
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D5">
         <f>SUMIF(GuimoonPass!E:E,'보상 측정'!A5,GuimoonPass!F:F)</f>
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="E5">
         <f>C5+D5</f>
-        <v>780</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonPass.xlsx
+++ b/Assets/06.Table/GuimoonPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B01E722-DAE3-4198-A698-3ADF50EA3DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5241AF9-E88D-445C-8B92-5E1388A8A02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -200,9 +200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +240,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -346,7 +346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1074,6 +1074,26 @@
         <v>9038</v>
       </c>
       <c r="F28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>9038</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>9038</v>
+      </c>
+      <c r="F29">
         <v>20</v>
       </c>
     </row>
@@ -1135,15 +1155,15 @@
       </c>
       <c r="C5">
         <f>SUMIF(GuimoonPass!C:C,'보상 측정'!A5,GuimoonPass!D:D)</f>
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D5">
         <f>SUMIF(GuimoonPass!E:E,'보상 측정'!A5,GuimoonPass!F:F)</f>
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="E5">
         <f>C5+D5</f>
-        <v>810</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonPass.xlsx
+++ b/Assets/06.Table/GuimoonPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5241AF9-E88D-445C-8B92-5E1388A8A02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3086A7EE-F0B4-4CC4-9850-892B7EB7D764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonPass" sheetId="1" r:id="rId1"/>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1094,6 +1094,26 @@
         <v>9038</v>
       </c>
       <c r="F29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>9038</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>9038</v>
+      </c>
+      <c r="F30">
         <v>20</v>
       </c>
     </row>
@@ -1155,15 +1175,15 @@
       </c>
       <c r="C5">
         <f>SUMIF(GuimoonPass!C:C,'보상 측정'!A5,GuimoonPass!D:D)</f>
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D5">
         <f>SUMIF(GuimoonPass!E:E,'보상 측정'!A5,GuimoonPass!F:F)</f>
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="E5">
         <f>C5+D5</f>
-        <v>840</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonPass.xlsx
+++ b/Assets/06.Table/GuimoonPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3086A7EE-F0B4-4CC4-9850-892B7EB7D764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47AFB30-CE5F-45AD-9BC2-951EBC22FF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1114,6 +1114,26 @@
         <v>9038</v>
       </c>
       <c r="F30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>9038</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>9038</v>
+      </c>
+      <c r="F31">
         <v>20</v>
       </c>
     </row>
@@ -1175,15 +1195,15 @@
       </c>
       <c r="C5">
         <f>SUMIF(GuimoonPass!C:C,'보상 측정'!A5,GuimoonPass!D:D)</f>
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D5">
         <f>SUMIF(GuimoonPass!E:E,'보상 측정'!A5,GuimoonPass!F:F)</f>
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="E5">
         <f>C5+D5</f>
-        <v>870</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
